--- a/backend/incomes.xlsx
+++ b/backend/incomes.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,12 +414,72 @@
         <v>Date</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="B2">
+        <v>5600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45689.000185185185</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="B3">
+        <v>5600</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45689.000185185185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45689.000185185185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45689.000185185185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45689.000185185185</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="B7">
+        <v>5004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45689.000185185185</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
